--- a/FSDAtestHPC/test-results/regression-clustering_test.xlsx
+++ b/FSDAtestHPC/test-results/regression-clustering_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="30">
   <si>
     <t>FileName</t>
   </si>
@@ -131,6 +131,63 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>close all
+rng('default')
+rng(2);
+b1=[1 1];
+b2=[1 2.6];
+n1=40;
+n2=50;
+s1=0.1;
+s2=0.1;
+X1=rand(n1,1);
+X2=rand(n2,1);
+y1=randn(n1,1)*s1+b1(1)+b1(2)*X1;
+y2=randn(n2,1)*s2+b2(1)+b2(2)*X2;
+hold('on')
+plot(X1,y1,'o');
+plot(X2,y2,'o');
+title('Two simulated regression lines')
+y=[y1;y2];
+X=[X1;X2];
+figure
+% parfor of Parallel Computing Toolbox is used (if present in current computer)
+% and pool is not cleaned after % the execution of the random starts
+[mdrrs,BBrs]=FSRmdrrs(y,X,'constr','','nsimul',100,'init',10,'plots',1,'cleanpool',false);
+disp('The two peaks in the trajectories of minimum deletion residual (mdr).')
+disp('clearly show the presence of two groups.')
+disp('The decrease after the peak in the trajectories of mdr is due to the masking effect.')</t>
+  </si>
+  <si>
+    <t>X=load('X.txt');
+out=lga(X,3);</t>
+  </si>
+  <si>
+    <t>X=load('X.txt');
+out=rlga(X,3,0.05);</t>
+  </si>
+  <si>
+    <t>% The dataset presents two parallel components without contamination.
+X  = load('X.txt');
+y1 = X(:,end);
+X1 = X(:,1:end-1);
+k = 2 ;
+restrfact = 5; alpha1 = 0.05 ; alpha2 = 0.01;
+out = tclustreg(y1,X1,k,restrfact,alpha1,alpha2);
+restrfact = 2; alpha1 = 0.05 ; alpha2 = 0.01;
+out = tclustreg(y1,X1,k,restrfact,alpha1,alpha2,'mixt',2);
+% Comparison with robust linear grouping
+out = rlga(X,k,alpha2);</t>
+  </si>
+  <si>
+    <t>% The dataset presents two parallel components without contamination.
+X  = load('X.txt');
+y1 = X(:,end);
+X1 = X(:,1:end-1);
+out = tclustregIC(y1,X1);
+tclustICplot(out,'whichIC','MIXMIX')</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,14 +217,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,506 +251,506 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>47.086106000000001</v>
+        <v>48.539529000000002</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>7.229673</v>
+        <v>7.6139859999999997</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>10.404696</v>
+        <v>10.467041</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>26.696287000000002</v>
+        <v>26.916629</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>11.442496999999999</v>
+        <v>12.076658</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>28.405567000000001</v>
+        <v>30.475974999999998</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1.672274</v>
+        <v>1.8413649999999999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>13.316694999999999</v>
+        <v>13.986041</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>2.0658300000000001</v>
+        <v>2.1977519999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>13.057993</v>
+        <v>14.221619</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>4.7392370000000001</v>
+        <v>5.0546129999999998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>12.589306000000001</v>
+        <v>13.722821</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>16.073060000000002</v>
+        <v>17.409351999999998</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>111.817142</v>
+        <v>120.954714</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>76.380634000000001</v>
+        <v>88.082346000000001</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>14.833316</v>
+        <v>16.873704</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D18">
-        <v>4.3577139999999996</v>
+        <v>4.6425900000000002</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D19">
-        <v>37.819012999999998</v>
+        <v>42.383400999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>26.595714999999998</v>
+        <v>28.644392</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>17.080877999999998</v>
+        <v>18.632919999999999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D22">
-        <v>43.882877000000001</v>
+        <v>46.815122000000002</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
+      <c r="F22" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>16.015537999999999</v>
+        <v>17.393992000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
+      <c r="F23" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24">
-        <v>14.495244</v>
+        <v>15.823877</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D25">
-        <v>32.598833999999997</v>
+        <v>34.710514000000003</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>23</v>
+      <c r="F25" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
